--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/3_Afyonkarahisar_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/3_Afyonkarahisar_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42C501E2-A698-4963-898F-565C3F358018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9161647-8B58-4EC6-AE8E-149DCC05D0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="657" xr2:uid="{5AD34351-7C46-4B8A-9D1B-7A168133B963}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{4907913F-AF74-4018-889D-BF8E4AC7EDA7}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -1000,19 +1000,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Ana Başlık 2" xfId="1" xr:uid="{0F910043-E97B-49D9-B09A-EEF817017AD2}"/>
+    <cellStyle name="Ana Başlık 2" xfId="1" xr:uid="{27B8522A-F6D9-4252-A8B0-C777377799B9}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{C3B70B67-F264-475A-8E61-C7E9989B2D7A}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{C2673F3C-E4B8-4AE6-86FD-49ADE2101634}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{EB2BD3D9-BC2C-49B5-8A67-72B6C384CD9E}"/>
-    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{110BD97A-AA62-4BC8-B794-B95E3FF68F92}"/>
-    <cellStyle name="Normal 4" xfId="7" xr:uid="{3B774322-2580-4FCD-B1AC-0D59581F237A}"/>
-    <cellStyle name="Normal 4 2" xfId="8" xr:uid="{021F37C9-C664-4AFF-A5B4-E054BE8F21BB}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="9" xr:uid="{B5B04D5C-3DF2-4648-A3CD-7C3A10CDBA5B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="10" xr:uid="{85057556-BDD7-4718-BC32-314E95F0B1FF}"/>
-    <cellStyle name="Not 2" xfId="11" xr:uid="{3A464FAF-A382-4368-852F-1198EAD9FEC2}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="12" xr:uid="{62760C51-A5BD-40A0-998B-287730221F52}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{3272F257-A5E0-438B-87B0-A706745F85D3}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{66372CE8-949B-41F0-8F96-EA9F10744FB1}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{1E939F79-A0FC-4ED2-9486-30FF39DFE0F3}"/>
+    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{4DFF7C47-0216-4030-B904-B8F19CC307E4}"/>
+    <cellStyle name="Normal 4" xfId="7" xr:uid="{9A851E13-3EBD-4141-899F-5D49E52FE9A8}"/>
+    <cellStyle name="Normal 4 2" xfId="8" xr:uid="{62ABCAD1-D592-4F28-B9A2-93561C757D77}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="9" xr:uid="{42DEFBDE-1A88-43B5-AD11-2498E861B184}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="10" xr:uid="{4686AE98-383F-4355-A5DA-DA573E7AE5FB}"/>
+    <cellStyle name="Not 2" xfId="11" xr:uid="{E5CFB31F-4D5A-4787-8EB9-6134E85E176C}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="12" xr:uid="{A9631BA8-48D0-4E65-BB55-A30BD5E71324}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1382,7 +1382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3DE037-9D57-4596-ABDC-A3460BFF9D9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF1F533-398B-48B8-B6B9-BD8596A99C25}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2717,17 +2717,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{57E42CD3-626F-4952-91A2-A004AF2431B9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8005EEB2-3F41-4116-9B66-E3126C2C874A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{811F77E9-AA01-4017-A52B-26EDEB5E7DB4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AA328FA7-B463-4A44-AD00-8F4DAFED2433}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A6F0A71A-6EFF-4DE6-8370-6ED70211EE23}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FE826284-DF96-44F0-9162-ED7FF4C7B0C3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A8DE80A-F4D3-4C97-835C-A1FEB5E35936}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7CCBF2CD-D00D-4E78-8D65-85CBE741C539}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{70C9EAE5-B3A0-42B8-8A94-8947C4D04112}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{84E2BA2C-97E0-4575-8BB8-36E191DB2F27}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5E5522DB-C9B3-4C8C-B7A5-48FA7E6CEDCE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C5295A3F-8C10-4259-9983-B128335B27C3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{035A3920-6DA4-4E3A-B5BE-3D452C5C47CE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D691B21C-7B50-4516-B147-394BE859AB56}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{22A43761-B56A-40CC-B7BE-97F49B3CFF83}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{89B848D5-173C-4183-8ADD-27AEF9FE4161}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0CE0AED4-6DC8-48B6-9668-B2900699B243}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6F7DCBBC-90C6-4D05-A2DB-ECB3064399FA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{18850312-9B31-4491-ACAF-AFA61B83CABB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{76CEB251-DADD-467B-9F22-09CE8ADFC4BD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{18A188E4-7D34-4D8D-9C8C-6FFC01E82EBB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ED16B339-77FD-4945-8C9C-15D1D5BCBBCC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2740,7 +2740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF026D0-3187-4379-A1F9-3E367D568F64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EE2B08-B9DF-47CD-84C6-0B6AD864DA73}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F106"/>
   <sheetViews>
@@ -4075,17 +4075,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{47F43D00-5701-4C0F-B7F7-00B9F7649FF2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{54471EF2-756E-450E-9A0E-78F25736B26D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F56DDC34-F940-45E3-B045-E02782EB677B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2CFF2E54-21FB-4541-A8B0-E9F0DCED1AD8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7C48D7FA-BBEA-4FA6-B9B8-6F069707BE71}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BF05CAC1-F720-49B2-A7D2-977E8C9D67CD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{99851084-2885-4902-B155-8D7BFACA991A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB55ECEA-2FE5-4A98-B5B3-F384ACD9B3A4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4D77C1DD-D5BD-4C39-97AB-E48678FB57CF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FC09E708-A646-4D37-940D-027079D5F800}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9366101F-149E-4966-8748-44119E2AF6EC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{58EAD122-7075-48E8-897D-CB84660C2B41}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C4DE9F0-2505-429D-88E6-19BBDD1DE73C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E74B8F6D-A977-48D8-B043-01BD56E02E46}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A765B94E-D9B0-448F-BD0E-EC525E1EC06D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B95E8E15-92CD-43A4-8124-AAF6BC45A103}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A490BEED-8059-4C7D-8809-DD098E969298}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F739149-48C5-4597-9E38-D9958709799E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{377208A4-BE82-4B8D-8EC4-E02E808F01D2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CFA71952-0FB5-4F56-B75A-367837FAE97A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9F85B9D8-3CA5-415D-B9A7-7F441DE5ABBF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2ADA0127-953B-4B4F-853A-03FCF65AF322}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4098,7 +4098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8C24BC-1F00-4030-87A4-A6983ED93024}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8147EC74-39DE-4BFF-AED7-81DA0EEF0CDB}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F106"/>
   <sheetViews>
@@ -5419,17 +5419,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E70CDF98-93C2-4457-B9B5-6510A4DB70C6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2919F664-802A-4BC0-8756-C4D212C23AB3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ECE52719-D269-411D-A0D6-FE44983C8211}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9823A913-7B8A-4053-8359-F2A3BA5A5F61}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{85B85B19-B09F-41CC-A269-65263286B5FD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{58393B77-A91B-4396-BCE2-18C687C8958D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7B032ED9-D27A-4E1C-A8BF-862C79E3C58C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A44C58F2-BE2F-442B-9E26-F0FEC2D1A8CF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2DFFE64B-2486-4E0D-BBC7-93D497490003}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{98EBD755-4868-4A2E-BFD8-42944BAEBAEB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4D6A7CC7-E3E7-4F8E-90A2-E7C71EDE2A57}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA010A91-3EF5-4329-BECD-2E7CB9F2C9C2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A9E60ED8-D1BA-42D2-A21C-91593279FB7F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E6985490-6479-4846-9328-C96ED7F416DB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5F9D32E6-EE81-400D-8624-92AB2F26D03F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F4DCCAFA-4898-47D9-9D5A-B2B3C00999A2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4948D357-C80B-4587-A843-AC3633269C94}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{96560974-A488-4EA5-8723-29E63AFDE5AC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A10D0028-0294-4ABA-8C65-16AF7B215649}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{652D7F7E-3B32-40DC-835E-934D3BE519CA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D2E9812B-F40C-4381-81DF-AF876D0DFA9B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{32E25C4F-024C-4432-A379-C926223080C2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5442,7 +5442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28411CE-1A66-4FBE-9CAC-EAE592F3DAE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5B747F-CE05-4E54-9881-0E9248DF41FF}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F106"/>
   <sheetViews>
@@ -6763,17 +6763,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C33D0AE1-4204-4E29-B075-A4135C60B6EB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4F5F52E-3871-4AF8-B226-0B8A632F328C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5DC53DFE-DCED-4561-B6E2-E641843B343A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2717A08E-D217-4D85-9571-6418E0034812}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A86104D3-4800-4043-B827-B035ACAFABF9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{220985F4-D296-4F50-9CC5-CBFD5AEE982A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B34043A5-8DDA-44B6-BF5E-72B591DB57CF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5BE0AB05-1F0A-4C35-8401-3B9819E43421}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BBAE0FD9-D003-42EC-BFCE-A3F62E704664}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E7EBB8EC-1C2F-462D-B608-A7CC31A426E0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{56099791-92F8-4ABE-B928-C163C108846F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C9C5BAAB-9E5E-4849-9CED-6F484357CFC2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{47D1B928-65AA-4474-AACD-1C900D0BFC01}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{42916BB1-39F6-4748-B096-A9D279872BA3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6EEE24C0-0DF9-4FA4-BE6D-DA17441E223F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5FABE979-2AB4-4A39-83DA-A0C4C78AD90E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D954F6BC-979B-4A8A-B0FF-19FD15E61FBC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{096D0ED2-3F71-423E-958F-ACBF7B339F3C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B51DE766-585C-4CAE-8C8A-1BB36D1ABCD4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{436B5BFC-17A3-4C22-A41D-B4A3A18FE640}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8AE25D7B-8822-4012-A294-927D8CF2197B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FA89DE81-76F8-4178-ADA1-15BDB6B5E24B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6786,7 +6786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566B687D-7550-44D7-A809-E540939E2335}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C0E7F4-20F1-449F-91E2-2B0782F6E937}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8120,17 +8120,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7163F4DA-A29B-4598-95BF-C823DCCA4C04}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D6C5BD96-A13D-400F-B3A3-40F99FA23DE6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C7255CB1-339F-4614-9AAE-19C117010B25}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{92FA4770-A6FE-4A92-8152-CEFFBF444870}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E44C51A4-A423-42B1-9F43-1BB882DAE48B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F9FB5637-A6C6-4881-A73D-1E97342C3CB2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9855F31F-3C8A-4D07-A58A-8458F11D9412}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A99CAD45-BE95-41E2-8556-87EF080E7E1F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{832D0A68-C74F-4F09-AB74-EE94C7FC81DE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A3CDFD73-4222-40B4-9426-4B118D065C3B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{70841CC6-846E-4454-9867-32F40AE69046}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F84CCFD7-E526-42BE-815C-B1AEF9E6FF76}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{81737354-E5CE-44FB-A071-F05818BDA71E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E9A202B6-F6F2-453D-961F-5B1922849363}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5EAD35ED-B567-4D90-B7A4-B9C634F7D1A5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4AC49C8C-2528-415F-AD6A-117987C1F0BD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3AF84F5C-8D53-4051-ADA6-1FFAFFD360B1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DDD0D2F4-054A-4156-A904-BF0EDEE85E15}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7C4C7C5C-3BDA-45DD-B61F-17DB7BF6938B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9340E8B3-ABB8-4216-8B62-17C912EE02BF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9AF43E18-F665-43A6-B146-1F19355005E8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{270515FD-888A-41EC-9911-2AB5B00E314F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8143,7 +8143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60B607B-BD90-413F-80C8-8E5608C52FC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D67D36A-5F63-4888-A5F6-ABF72B5AD906}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9477,17 +9477,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D047F7F6-D761-4F37-90B0-7A78C0EBAF10}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{609C856C-A845-4C5F-AD48-3561E33D2DB7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6D1BA1E0-9833-4466-A6DB-35BC8DDB9089}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8A72782F-6776-4053-BA13-859A2502BF3B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9015D16F-DFEE-494B-B180-B2B9DAC3BBFE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2ED15001-B318-4747-9426-ACAC76C798AE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8889A03B-9C02-4866-BABA-E5C5003292A3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{45981FB8-DCA7-473C-B510-C80B8AD24C51}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3FFC8840-2DDD-409E-9A9F-C6FA7FD4615D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4CF43202-7FBC-48F8-89CA-EEFD69B399F9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F26A6A5C-D8EB-46F5-8FE5-C529C246815A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CA4D8468-B01A-4E27-B9C8-0C9ECA4B2F1C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C5714E7A-DD60-492B-94B9-6A8F252374FB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B650D12A-1476-4263-9447-3F148994C9CD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2AF61511-AFE0-4CB7-97BF-BC2D65257836}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{713280FF-D3FC-4D8D-B130-2CB310018A92}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{476AD2CE-A72D-4CCB-A952-01E18A128F1F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{28626364-B335-4DA8-9C03-C5884151BE47}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AA226C99-4533-46CB-9D3E-AF5A34F6B7CB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5E9960FA-90E4-4D85-993B-C774FFAD5154}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{415DB8F3-4E0D-476B-9940-DF930C2D7FF2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA48E1D5-2D19-483B-9D5C-0177EE6765B9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9500,7 +9500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2ED5AA-18F4-4BDD-B121-DAD8A73AA8E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0A9709-5914-4518-A58E-6F70DD9C96CB}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10834,17 +10834,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5F9C2D9B-C025-40B2-BDE2-700F07AC9FA8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30126421-F42F-45FB-BC61-2A77B9CD0A8C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{67E1DCD8-120A-4E2B-9865-7DF71270F484}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F57C60DB-68BE-4144-ADE9-57BBD0C799F7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8FC0E601-1925-49BC-BB4C-635A6DDB657F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C53344FF-02E9-4386-B3F0-64824C9B9014}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD8BE08A-0686-4EFE-8322-8BA5F2C011CC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8BF88435-5777-4CBF-94B5-3BB25FAECA13}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{747AED93-D424-4EF1-945E-7EC2B4717BAA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1BD99DBD-E345-4612-B5EA-418F48C13C00}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CF202B1F-E3C5-4D59-BD60-DCB4377C07BE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1210B41F-1298-45EB-A7D6-0A6F2BD08C95}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{471B7900-8BD2-4FD5-8E4A-0DB0F9184677}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{103E46E3-B0D7-424E-9D0C-588C283D47C3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{329BF254-2F95-4364-9AFD-D7A4EFA866A5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6BF3F5DB-1ADA-4D41-AF77-1E851FD9E580}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7F583D2F-024B-467B-971B-44901E55BFE1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2959543F-9CDF-4184-811B-5599AC45A3AE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A5D118B-A860-42C5-80E2-BEA309DE8732}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F9ACD0D4-10A9-4370-9CB4-06EED20BAEBB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1CA14D37-C3A5-402C-8DFB-1220F4ADF9DA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA81770B-9288-4151-9421-FB434CFA6AEF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10857,7 +10857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F38B67-E334-48C4-A9D9-2B949B0B8A01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0515FA-3638-412A-8BA7-12F732283C08}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12191,17 +12191,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D9E1FCA8-1C69-4AB6-8884-14B2231D8DCE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DB016130-BE35-4B18-9827-812A85A7FCC7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{40DC15BE-889A-470A-9DE8-55EACA6CCDEB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F8DE3B2C-B6CD-448C-A041-99F318C60897}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A73DB71B-B186-4991-A37F-8F676A273838}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6F525FE4-8955-4DCB-B557-38822C0AA0A9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4BCA2BB3-78AA-47E5-A535-C4DFE67A434E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3C9A3010-46BF-4402-991C-25D3D7E0EC14}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B3EF1E61-BD37-4B31-BFCD-FE13EFF087D3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{83E563C2-DC30-4257-AB8A-8DF3A71A4D3A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D4F25751-066C-4BF0-845D-34031F2D09B0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{344D0311-8F4C-47AF-83B0-D049E88B8817}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4F03ED14-641D-4BDF-8D7A-0B973D3E1C94}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B727FB38-320E-4F72-A416-4B7C1616553D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9744BE9A-A951-40D8-BE8D-AB2BEAF82FB1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8220DA2D-0F95-42E1-A2B8-9DB9600030CF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E08229D4-2638-4BA1-BD99-F0150B584956}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5AE957E1-ABAC-41FE-886A-38CB7EDFED5A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6C35E9B-504B-468F-A578-91EB828322FC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{72E1A2C9-78E6-4E29-A110-2AB098F3512C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8BBE26D9-45E6-4529-84F4-2AA592C8BCA1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5647FBEE-A508-4B55-9A81-F386806F5136}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12214,7 +12214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D032FA-039E-4BFC-BA45-DE65A834F84F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051BB785-F8AA-46B3-BF21-655208DBF1A5}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13548,17 +13548,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{47E8894D-CB0B-495A-A8ED-1CE6BFF3B86D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD3FA978-9482-4A9D-84D7-F7FC8BD225B2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4ACC3914-8DB4-4888-B6E3-CF98DA689376}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7E31B8B7-190D-40A6-A42A-35C763CB985A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{646DBFA6-FF65-4D2C-9C43-6D9D9DAE89F4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EF55FF81-4DBC-42EB-B8EA-CD75E1253CA6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CD6163F4-9C56-4465-AD9F-87106C48E290}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{19A00268-68A2-4DAB-AE25-27D08F7DB4FA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0C5E124A-1850-439A-86C7-9A966632B134}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2A6463C1-678F-46C4-9103-3844C5EC78A1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8AC22FBE-8A4B-4CCD-910C-26C43A461C83}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{46E92D3A-E782-4D25-92E5-D9B1FB63F335}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F5519CC5-49C3-43CD-8433-6446DBEC3EA7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{10810A1A-54CF-472A-BBB8-01ACAFB657BE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C960881F-550B-4167-A847-A4F5A949C8E0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0704A311-8F72-4A06-A489-93982154922E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CAC53CFF-7C59-46D8-9D9F-35D44430B38A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BBF42C0D-E264-4A5A-99C8-CFC6DB271E92}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8F15918E-2339-4908-B4DC-9DBE7041AABB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9EA07642-3AB9-4B22-AAF8-0946F22F73AD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3D318603-D0A8-42B6-9798-557C6C4A09C4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{734D304A-3D96-4053-BE2C-8E108F5D4870}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13571,7 +13571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A59CE3A1-83F3-494B-991D-2A16D38FAF4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DE98AE-055A-442F-B14A-01773ED8C8A8}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14905,17 +14905,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{77D3DF12-6FED-4FD9-BB18-8931B5304C16}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7224F038-401F-4405-9E51-F0E7B242E79E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{859155D4-30EB-4484-905C-52DD9F2A0FFB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{47D7BA04-0B5B-401B-87F1-9BE08F7EF981}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7AF203EB-A8F4-48A8-9F62-C50BD8116CD3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A780058C-04B7-4955-B0A5-91DF5C3DF832}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DED6024F-1374-4D64-9A2C-91E4695F5794}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A0E05CFF-6216-4D10-A97E-55E9150ADCD3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F9E5BA2E-94EC-4DCB-AA93-9AC3101A50A2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{35A3FB40-FDBC-46A8-8F17-D7376DA54B60}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1BB058EB-A1B8-40BD-91DD-A53F02809B61}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8D0E6C61-2AB1-48EA-9BE4-D6799A66D417}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{133A30B6-7A33-4F1A-A5D8-83450DC4634E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8AC05D37-DA82-4CD9-8F99-F57AC106756B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{60A6F1BA-FFA9-4871-8EA8-C5BBA0535042}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B9FBDCBC-299B-426D-B3C5-55BCFEF21969}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C1E96E26-5E4F-4A3B-BF62-9768F65A89A4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{229C0943-2105-414F-B5B5-F9B540EBC12A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC8F4867-B3A6-4B38-89F4-4162C39BFB8B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{720B0A3B-A1DA-4657-ADA3-5E3E3A540C15}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D2D66F1C-F337-488E-9117-B655544B8C62}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1492DF32-26F1-4EFC-9149-D9A003705D28}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14928,7 +14928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04771B4-2D44-49D2-8F37-09A6936C750C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D4DB1D-20E9-4662-8CBC-3A875F2FB3B9}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F106"/>
   <sheetViews>
@@ -16263,17 +16263,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EAC7D529-76EA-40A1-B132-23529523745A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0CA37312-5521-4876-B7C4-B43262899286}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{98AA0D69-5581-42A8-BEAA-60710479866F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9017FA21-ACDE-43E5-8E7C-000E73006E71}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{62BA28C8-B870-42C0-AD39-9A788CBD1B12}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BF826BE9-55C2-4CDA-9627-145E9F2383C7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{71B83C23-D37A-4248-9F81-EAB2EA7D79E1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{06AE453D-F9EB-4F9C-B653-FEEF70F36A6B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BD393802-0463-484A-969B-F2139047C11D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{547C615C-2029-4D41-96E2-EFC6105E9979}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{78195F83-90B0-4F4F-84FD-9D1BDDB813C3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{45153339-AFB4-46F8-B915-CFD057302018}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{883F653F-2270-4959-A914-88F6E0981B92}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B3DA68B1-F768-44AF-90AA-88C34D7975E9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E085A1CC-860C-44C4-A16A-59E1B4A82D28}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A1E99A21-2D13-4831-A1B5-A96C2EE74B27}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{013FE05F-CA54-4C26-AB66-C38BCE1E27E9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4BF7D026-DE50-4C8E-81B5-38249C17A39B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C07A8275-2FB4-4163-8BAE-FB91B75D3B8C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{130FC7FB-C251-4CA7-BB35-F390D6414A80}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9A3546C7-9B89-422A-9346-75D20CBED9C5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{88DAEBFE-1C5E-4310-9417-2194C7B8C965}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -16286,7 +16286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B271B8-14B5-4D59-9AFD-E7D3FDF5886D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A5295F-9121-4D4A-A1F6-FB2623308532}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F106"/>
   <sheetViews>
@@ -17623,17 +17623,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{56E833BE-C187-45DC-B470-6E849FFD6356}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{832A02DF-17A7-4B0E-8D06-DFB58BFE601B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8EF152A6-3185-43D5-847F-702AEBD9CEAE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A9EFF426-B6E3-4666-9851-3368D6B4C02C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7EC522A1-A5CD-4823-B3A8-08636A33F32D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AD5B4B7F-3B31-4843-B5D9-1AC4B153C95F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{065E2E0F-4723-48A0-B517-ACF97D5EC152}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6CEC1227-9209-4CA2-849E-516BD1B02ADB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4D4CEDEC-8209-4BD4-A29B-61EA1EDD3AFE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8737EDF7-B3AE-4F93-AA17-63DF546C1EF2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{35D67990-CFB2-4489-A044-A6CABA8AF264}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ACEEB8F5-A0D0-450D-859C-B12C08952197}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FB9D23CE-7160-42AE-BEA9-F603ADD7047D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2DEC1932-5553-42FD-B337-9AF057A71134}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D262F578-2A42-4A5B-A4B3-DD08486CA289}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{86202AF4-3910-4183-ABE7-3BAA80CAE331}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{25B128C8-59EC-48B7-83C3-B823514E3A97}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CC9022EC-EED9-4399-8FCF-D7890EF18582}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3011A6AD-EFBC-4221-97D4-6E64F8563E1C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{38A5C684-D956-4869-94E7-0B14354F3076}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2985C7E1-4F9E-45FA-BC64-3DA5974F3BD0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C4550146-F28E-4646-8461-7D60CC9B44C6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
